--- a/public/templates/disponibilidad.xlsx
+++ b/public/templates/disponibilidad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="792"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="792" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="6" r:id="rId1"/>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -428,6 +428,13 @@
       <i/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -811,7 +818,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -996,6 +1003,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,7 +1154,7 @@
         <xdr:cNvPr id="3" name="Picture 1" descr="Sin título-2-02">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACF26F7-CDA6-4DA9-9522-4D55161D2AEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DACF26F7-CDA6-4DA9-9522-4D55161D2AEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1156,7 +1166,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1177,14 +1187,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1216,7 +1226,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F927BB3-7929-4562-A291-60D012494733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F927BB3-7929-4562-A291-60D012494733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1269,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB66012-AB7A-41A5-AF11-B6EBE1C51081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEB66012-AB7A-41A5-AF11-B6EBE1C51081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1318,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0E3B11-7F59-484C-AA1D-00E7B3B5E09F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E0E3B11-7F59-484C-AA1D-00E7B3B5E09F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1361,7 @@
         <xdr:cNvPr id="7" name="Picture 1" descr="Sin título-2-02">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120466AE-588E-4C84-8E8D-321F030BD991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{120466AE-588E-4C84-8E8D-321F030BD991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1373,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1384,14 +1394,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1423,7 +1433,7 @@
         <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B877B4-B484-421F-894C-D5083D33FC42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4B877B4-B484-421F-894C-D5083D33FC42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2068,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2180,7 +2190,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5"/>
@@ -2191,7 +2201,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="15"/>
